--- a/Final Paper/Comparison Table 2.xlsx
+++ b/Final Paper/Comparison Table 2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,6 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07c9239cf8ef362/4th Year Sem2/EG4012/Matlab GUI Thesis/Matlab-GUI-Thesis/Final Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="5156BC689B060479E16BCBAFF2AF9FBB13E03353" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{B506E686-5B47-48F3-A4BA-018426C0BA51}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25680" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16888" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16888" uniqueCount="185">
   <si>
     <t>HELP</t>
   </si>
@@ -540,7 +541,58 @@
     <t>Output Finance Figures</t>
   </si>
   <si>
-    <t xml:space="preserve">Net Present Value </t>
+    <t>Daily Usage (kWhr)</t>
+  </si>
+  <si>
+    <t>Daily Production (kWhr)</t>
+  </si>
+  <si>
+    <t>Daily Storage (kWhr)</t>
+  </si>
+  <si>
+    <t>Total Exported (kWhr)</t>
+  </si>
+  <si>
+    <t>Daily Cost – Standard ($AUD)</t>
+  </si>
+  <si>
+    <t>Daily Cost – Import ($AUD)</t>
+  </si>
+  <si>
+    <t>Daily Cost – Export ($AUD)</t>
+  </si>
+  <si>
+    <t>Daily Cost - Acutal Savings ($AUD)</t>
+  </si>
+  <si>
+    <t>Annualised Life Cycle Cost ($/kWhr)</t>
+  </si>
+  <si>
+    <t>Annual Payment -  Optimistic ($/kWhr)</t>
+  </si>
+  <si>
+    <t>Annual Payment -  Likely ($/kWhr)</t>
+  </si>
+  <si>
+    <t>Annual Payment -  Pessimistic ($/kWhr)</t>
+  </si>
+  <si>
+    <t>Expected Savings – Monthly ($AUD)</t>
+  </si>
+  <si>
+    <t>Expected Savings – Yearly ($AUD)</t>
+  </si>
+  <si>
+    <t>Expected Savings - 10 Year Period ($AUD)</t>
+  </si>
+  <si>
+    <t>Expected Savings - 20 Year Period ($AUD)</t>
+  </si>
+  <si>
+    <t>Payback Period (years)</t>
+  </si>
+  <si>
+    <t>Net Present Value ($AUD)</t>
   </si>
 </sst>
 </file>
@@ -1336,209 +1388,6 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1942,6 +1791,209 @@
       </font>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <color theme="1"/>
@@ -2084,43 +2136,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64F0368C-A621-4094-9DFE-ECE20E19140E}" name="Table134234" displayName="Table134234" ref="A3:F144" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64F0368C-A621-4094-9DFE-ECE20E19140E}" name="Table134234" displayName="Table134234" ref="A3:F144" headerRowDxfId="35" dataDxfId="34">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DCF214CF-4DCB-4F8A-85C4-BC1A7DAF2C3A}" name="FEATURES" totalsRowLabel="Total" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{4FDA35BD-BFB6-4494-8228-2A2E0CDDD289}" name="The Solar Solution" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FEAA5A23-B897-4F32-A233-F59CEE9D0043}" name="Solar Choice" dataDxfId="5" totalsRowDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{8D98A8DC-B3E4-4316-8103-7D1D082601F3}" name="Solar Power Calculator" dataDxfId="3" totalsRowDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{EEAD0DA8-C97D-4805-8DA2-BCD305A89043}" name="Solar Savings" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{AB348F1E-34D2-4FA9-B9FF-CC290D8E7AAB}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DCF214CF-4DCB-4F8A-85C4-BC1A7DAF2C3A}" name="FEATURES" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{4FDA35BD-BFB6-4494-8228-2A2E0CDDD289}" name="The Solar Solution" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{FEAA5A23-B897-4F32-A233-F59CEE9D0043}" name="Solar Choice" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{8D98A8DC-B3E4-4316-8103-7D1D082601F3}" name="Solar Power Calculator" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{EEAD0DA8-C97D-4805-8DA2-BCD305A89043}" name="Solar Savings" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{AB348F1E-34D2-4FA9-B9FF-CC290D8E7AAB}" name="Column1" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEA80E19-B115-4056-88DE-52944BD49752}" name="Table13423" displayName="Table13423" ref="A3:E45" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEA80E19-B115-4056-88DE-52944BD49752}" name="Table13423" displayName="Table13423" ref="A3:E45" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{902D8989-BA26-429C-8D63-84F54D729967}" name="FEATURES" totalsRowLabel="Total" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{10A355FE-7D1F-49B0-8ACA-1B9A14C72955}" name="The Solar Solution" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{148D7756-D0DF-4232-8C7E-D44796A7E4AD}" name="Solar Power Calculator" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{F31549BA-163B-4D40-BB3A-77F2D7DAEB14}" name="Solar Choice" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{E4C89B09-62DD-43F3-ABCE-119443F63E34}" name="Solar Savings" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{902D8989-BA26-429C-8D63-84F54D729967}" name="FEATURES" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{10A355FE-7D1F-49B0-8ACA-1B9A14C72955}" name="The Solar Solution" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{148D7756-D0DF-4232-8C7E-D44796A7E4AD}" name="Solar Power Calculator" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{F31549BA-163B-4D40-BB3A-77F2D7DAEB14}" name="Solar Choice" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{E4C89B09-62DD-43F3-ABCE-119443F63E34}" name="Solar Savings" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1342" displayName="Table1342" ref="A3:G26" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1342" displayName="Table1342" ref="A3:G26" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:G26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FEATURES" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PRODUCT NAME 1" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PRODUCT NAME 2" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRODUCT NAME 3" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PRODUCT NAME 4" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PRODUCT NAME 5" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PRODUCT NAME 6" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FEATURES" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PRODUCT NAME 1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PRODUCT NAME 2" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRODUCT NAME 3" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PRODUCT NAME 4" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PRODUCT NAME 5" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PRODUCT NAME 6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2394,8 +2446,8 @@
   </sheetPr>
   <dimension ref="A1:XFD145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3510,7 +3562,7 @@
     </row>
     <row r="43" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="108" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="B43" s="118">
         <v>19.2</v>
@@ -3527,7 +3579,7 @@
     </row>
     <row r="44" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="108" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="B44" s="118">
         <v>24.692499999999999</v>
@@ -3544,7 +3596,7 @@
     </row>
     <row r="45" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="108" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="B45" s="118">
         <v>10</v>
@@ -3561,7 +3613,7 @@
     </row>
     <row r="46" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="108" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B46" s="118">
         <v>6.4617000000000004</v>
@@ -3578,7 +3630,7 @@
     </row>
     <row r="47" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="108" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B47" s="118">
         <v>5.3261000000000003</v>
@@ -3595,7 +3647,7 @@
     </row>
     <row r="48" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="108" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B48" s="118">
         <v>0.26879999999999998</v>
@@ -3612,7 +3664,7 @@
     </row>
     <row r="49" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="108" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B49" s="118">
         <v>0.50009999999999999</v>
@@ -3629,7 +3681,7 @@
     </row>
     <row r="50" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="108" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B50" s="118">
         <v>5.5574000000000003</v>
@@ -52878,7 +52930,7 @@
     </row>
     <row r="58" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="108" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="B58" s="118">
         <v>0.1603</v>
@@ -52895,7 +52947,7 @@
     </row>
     <row r="59" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="108" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B59" s="118">
         <v>0.1623</v>
@@ -52912,7 +52964,7 @@
     </row>
     <row r="60" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="108" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="B60" s="118">
         <v>0.20610000000000001</v>
@@ -52929,7 +52981,7 @@
     </row>
     <row r="61" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="108" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B61" s="118">
         <v>0.25540000000000002</v>
@@ -52980,7 +53032,7 @@
     </row>
     <row r="64" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="108" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="B64" s="118">
         <v>166.721</v>
@@ -52997,7 +53049,7 @@
     </row>
     <row r="65" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="108" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="B65" s="118">
         <v>2028.4</v>
@@ -53014,7 +53066,7 @@
     </row>
     <row r="66" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="108" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B66" s="118">
         <v>20284</v>
@@ -53031,7 +53083,7 @@
     </row>
     <row r="67" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="108" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B67" s="118">
         <v>40569</v>
@@ -53048,7 +53100,7 @@
     </row>
     <row r="68" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="108" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="B68" s="118">
         <v>13.014900000000001</v>
@@ -53065,7 +53117,7 @@
     </row>
     <row r="69" spans="1:7" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="108" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B69" s="118">
         <v>16682</v>

--- a/Final Paper/Comparison Table 2.xlsx
+++ b/Final Paper/Comparison Table 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c07c9239cf8ef362/4th Year Sem2/EG4012/Matlab GUI Thesis/Matlab-GUI-Thesis/Final Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="5156BC689B060479E16BCBAFF2AF9FBB13E03353" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{B506E686-5B47-48F3-A4BA-018426C0BA51}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="5156BC689B060479E16BCBAFF2AF9FBB13E03353" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{5FA85E99-6EBA-407A-9034-861FB4919556}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25680" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16888" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16893" uniqueCount="188">
   <si>
     <t>HELP</t>
   </si>
@@ -594,15 +594,25 @@
   <si>
     <t>Net Present Value ($AUD)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Average </t>
+  </si>
+  <si>
+    <t>Economic Option</t>
+  </si>
+  <si>
+    <t>Annualized Life Cycle Cost ($/kWhr)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0\ &quot;GB&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1017,7 +1027,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1377,6 +1387,10 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -2446,8 +2460,8 @@
   </sheetPr>
   <dimension ref="A1:XFD145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3795,9 +3809,11 @@
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118" t="s">
-        <v>133</v>
+      <c r="G57" s="125" t="s">
+        <v>186</v>
+      </c>
+      <c r="H57" s="125" t="s">
+        <v>185</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>127</v>
@@ -52930,7 +52946,7 @@
     </row>
     <row r="58" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="108" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B58" s="118">
         <v>0.1603</v>
@@ -52943,7 +52959,13 @@
       </c>
       <c r="E58" s="118"/>
       <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
+      <c r="G58" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" s="126">
+        <f>AVERAGE(B58:D58)</f>
+        <v>0.17683333333333331</v>
+      </c>
     </row>
     <row r="59" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="108" t="s">
@@ -52960,7 +52982,13 @@
       </c>
       <c r="E59" s="118"/>
       <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
+      <c r="G59" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" s="126">
+        <f>AVERAGE(B59:D59)</f>
+        <v>0.17910000000000001</v>
+      </c>
     </row>
     <row r="60" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="108" t="s">
@@ -52977,7 +53005,13 @@
       </c>
       <c r="E60" s="118"/>
       <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
+      <c r="G60" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="H60" s="126">
+        <f>AVERAGE(B60:D60)</f>
+        <v>0.22740000000000002</v>
+      </c>
     </row>
     <row r="61" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="108" t="s">
@@ -52994,7 +53028,13 @@
       </c>
       <c r="E61" s="118"/>
       <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
+      <c r="G61" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="H61" s="126">
+        <f>AVERAGE(B61:D61)</f>
+        <v>0.28173333333333334</v>
+      </c>
     </row>
     <row r="62" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="108" t="s">
@@ -53011,7 +53051,6 @@
       </c>
       <c r="E62" s="118"/>
       <c r="F62" s="118"/>
-      <c r="G62" s="118"/>
     </row>
     <row r="63" spans="1:16384" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="108" t="s">
